--- a/2016CompetitionBot/Documentation/Camera Calibration Worksheet526.xlsx
+++ b/2016CompetitionBot/Documentation/Camera Calibration Worksheet526.xlsx
@@ -466,7 +466,372 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Centre X vs Distance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calibration!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trial A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99ccff"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9360">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Calibration!$B$8:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Calibration!$C$8:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="75937662"/>
+        <c:axId val="27482736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="75937662"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Distance (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27482736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="27482736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Centre X (pixels)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75937662"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.741360017497813"/>
+          <c:y val="0.191303951589385"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -577,13 +942,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -604,10 +969,10 @@
                   <c:v>1.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.54</c:v>
+                  <c:v>2.69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.68</c:v>
+                  <c:v>3.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.48</c:v>
@@ -726,11 +1091,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="40675191"/>
-        <c:axId val="68728543"/>
+        <c:axId val="23516156"/>
+        <c:axId val="41172376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40675191"/>
+        <c:axId val="23516156"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,12 +1169,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68728543"/>
+        <c:crossAx val="41172376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68728543"/>
+        <c:axId val="41172376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,7 +1258,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40675191"/>
+        <c:crossAx val="23516156"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -938,7 +1303,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1052,10 +1417,10 @@
                   <c:v>1.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.54</c:v>
+                  <c:v>2.69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.68</c:v>
+                  <c:v>3.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.48</c:v>
@@ -1073,19 +1438,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1110</c:v>
+                  <c:v>1360</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1340</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1198,11 +1563,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="45689736"/>
-        <c:axId val="85214737"/>
+        <c:axId val="55058855"/>
+        <c:axId val="22664493"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45689736"/>
+        <c:axId val="55058855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,12 +1641,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85214737"/>
+        <c:crossAx val="22664493"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85214737"/>
+        <c:axId val="22664493"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1365,7 +1730,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45689736"/>
+        <c:crossAx val="55058855"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1410,7 +1775,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1575,11 +1940,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="12967184"/>
-        <c:axId val="42177534"/>
+        <c:axId val="86565593"/>
+        <c:axId val="28155262"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="12967184"/>
+        <c:axId val="86565593"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1614,12 +1979,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42177534"/>
+        <c:crossAx val="28155262"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42177534"/>
+        <c:axId val="28155262"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,7 +2028,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12967184"/>
+        <c:crossAx val="86565593"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1688,371 +2053,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Centre X vs Distance</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Calibration!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Trial A</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="99ccff"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="9360">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Calibration!$B$8:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.57</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.54</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.68</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.48</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Calibration!$C$8:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="89632796"/>
-        <c:axId val="91353470"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="89632796"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Distance (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="91353470"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="91353470"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Centre X (pixels)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="89632796"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.741360017497813"/>
-          <c:y val="0.191303951589385"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2202,8 +2202,8 @@
   </sheetPr>
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2330,13 +2330,13 @@
         <v>1.57</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1110</v>
+        <v>1360</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>1</v>
@@ -2371,16 +2371,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="6" t="n">
-        <v>2.54</v>
+        <v>2.69</v>
       </c>
       <c r="C9" s="6" t="n">
+        <v>110</v>
+      </c>
+      <c r="D9" s="6" t="n">
         <v>109</v>
       </c>
-      <c r="D9" s="6" t="n">
-        <v>91</v>
-      </c>
       <c r="E9" s="6" t="n">
-        <v>1340</v>
+        <v>1700</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>2</v>
@@ -2418,15 +2418,17 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>3.68</v>
+        <v>3.92</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>140</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>1700</v>
+      </c>
       <c r="G10" s="5" t="n">
         <v>3</v>
       </c>
@@ -2493,9 +2495,7 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="6" t="n">
-        <v>1000</v>
-      </c>
+      <c r="E12" s="6"/>
       <c r="G12" s="5" t="n">
         <v>5</v>
       </c>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="D17" s="18" t="n">
         <f aca="true">INDEX(LINEST(OFFSET(B8,0,0,D13),OFFSET(D8,0,0,D13)^{1,2}),1)</f>
-        <v>7.69282071803081E-005</v>
-      </c>
-      <c r="E17" s="17" t="e">
+        <v>9.57702914399829E-005</v>
+      </c>
+      <c r="E17" s="17" t="n">
         <f aca="true">INDEX(LINEST(OFFSET(E8,0,0,E13),OFFSET(B8,0,0,E13)^{1,2}),1)</f>
-        <v>#VALUE!</v>
+        <v>-129.179331306991</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="14" t="s">
@@ -2655,15 +2655,15 @@
       <c r="B18" s="11"/>
       <c r="C18" s="17" t="n">
         <f aca="true">SLOPE(OFFSET(C8,0,0,C13),OFFSET(B8,0,0,C13))</f>
-        <v>7.51576367928757</v>
+        <v>5.91329103235301</v>
       </c>
       <c r="D18" s="19" t="n">
         <f aca="true">INDEX(LINEST(OFFSET(B8,0,0,D13),OFFSET(D8,0,0,D13)^{1,2}),1,2)</f>
-        <v>0.00549489026379782</v>
-      </c>
-      <c r="E18" s="17" t="e">
+        <v>0.00145577349462713</v>
+      </c>
+      <c r="E18" s="17" t="n">
         <f aca="true">INDEX(LINEST(OFFSET(E8,0,0,E13),OFFSET(B8,0,0,E13)^{1,2}),1,2)</f>
-        <v>#VALUE!</v>
+        <v>853.87537993921</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>26</v>
@@ -2689,15 +2689,15 @@
       <c r="B19" s="11"/>
       <c r="C19" s="17" t="n">
         <f aca="true">INTERCEPT(OFFSET(C8,0,0,C13),OFFSET(B8,0,0,C13))</f>
-        <v>88.1507336461166</v>
+        <v>91.8764264517841</v>
       </c>
       <c r="D19" s="19" t="n">
         <f aca="true">INDEX(LINEST(OFFSET(B8,0,0,D13),OFFSET(D8,0,0,D13)^{1,2}),1,3)</f>
-        <v>1.40292250233427</v>
-      </c>
-      <c r="E19" s="17" t="e">
+        <v>1.39347385648721</v>
+      </c>
+      <c r="E19" s="17" t="n">
         <f aca="true">INDEX(LINEST(OFFSET(E8,0,0,E13),OFFSET(B8,0,0,E13)^{1,2}),1,3)</f>
-        <v>#VALUE!</v>
+        <v>337.829787234042</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>27</v>
@@ -2782,22 +2782,22 @@
       </c>
       <c r="B5" s="21" t="n">
         <f aca="false">IF($A5&lt;&gt;"",($A5*$A5*Calibration!C$17)+($A5*Calibration!C$18)+Calibration!C$19,"")</f>
-        <v>99.424379165048</v>
+        <v>100.746363000314</v>
       </c>
       <c r="C5" s="21" t="n">
         <f aca="false">IF($A5&lt;&gt;"",($A5*$A5*$H$5)+($A5*$H$6)+$H$7,"")</f>
-        <v>17.1570572740543</v>
-      </c>
-      <c r="D5" s="21" t="e">
+        <v>30.4527806607853</v>
+      </c>
+      <c r="D5" s="21" t="n">
         <f aca="false">IF($A5&lt;&gt;"",($A5*$A5*Calibration!E$17)+($A5*Calibration!E$18)+Calibration!E$19,"")</f>
-        <v>#VALUE!</v>
+        <v>1327.98936170213</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="21" t="n">
         <f aca="true">INDEX(LINEST(OFFSET(Calibration!D8,0,0,Calibration!D13),OFFSET(Calibration!B8,0,0,Calibration!D13)^{1,2}),1)</f>
-        <v>-12.8533822953338</v>
+        <v>-11.821360614822</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,22 +2806,22 @@
       </c>
       <c r="B6" s="21" t="n">
         <f aca="false">IF($A6&lt;&gt;"",($A6*$A6*Calibration!C$17)+($A6*Calibration!C$18)+Calibration!C$19,"")</f>
-        <v>106.940142844336</v>
+        <v>106.659654032667</v>
       </c>
       <c r="C6" s="21" t="n">
         <f aca="false">IF($A6&lt;&gt;"",($A6*$A6*$H$5)+($A6*$H$6)+$H$7,"")</f>
-        <v>88.6740221100462</v>
-      </c>
-      <c r="D6" s="21" t="e">
+        <v>98.7049058492105</v>
+      </c>
+      <c r="D6" s="21" t="n">
         <f aca="false">IF($A6&lt;&gt;"",($A6*$A6*Calibration!E$17)+($A6*Calibration!E$18)+Calibration!E$19,"")</f>
-        <v>#VALUE!</v>
+        <v>1665.14741641337</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="21" t="n">
         <f aca="true">INDEX(LINEST(OFFSET(Calibration!D8,0,0,Calibration!D13),OFFSET(Calibration!B8,0,0,Calibration!D13)^{1,2}),1,2)</f>
-        <v>122.930494017327</v>
+        <v>115.537567647713</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,22 +2830,22 @@
       </c>
       <c r="B7" s="21" t="n">
         <f aca="false">IF($A7&lt;&gt;"",($A7*$A7*Calibration!C$17)+($A7*Calibration!C$18)+Calibration!C$19,"")</f>
-        <v>114.455906523623</v>
+        <v>112.57294506502</v>
       </c>
       <c r="C7" s="21" t="n">
         <f aca="false">IF($A7&lt;&gt;"",($A7*$A7*$H$5)+($A7*$H$6)+$H$7,"")</f>
-        <v>134.484222355371</v>
-      </c>
-      <c r="D7" s="21" t="e">
+        <v>143.314309807992</v>
+      </c>
+      <c r="D7" s="21" t="n">
         <f aca="false">IF($A7&lt;&gt;"",($A7*$A7*Calibration!E$17)+($A7*Calibration!E$18)+Calibration!E$19,"")</f>
-        <v>#VALUE!</v>
+        <v>1743.94680851064</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="21" t="n">
         <f aca="true">INDEX(LINEST(OFFSET(Calibration!D8,0,0,Calibration!D13),OFFSET(Calibration!B8,0,0,Calibration!D13)^{1,2}),1,3)</f>
-        <v>-138.318573587435</v>
+        <v>-116.255509427435</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
